--- a/raw_data/20200818_saline/20200818_Sensor3_Test_7.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_7.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C8858-2748-4510-B787-14709E6A594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>5959.336100</v>
+        <v>5959.3361000000004</v>
       </c>
       <c r="B2" s="1">
-        <v>1.655371</v>
+        <v>1.6553709999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1145.630000</v>
+        <v>1145.6300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.367000</v>
+        <v>-258.36700000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5969.739225</v>
+        <v>5969.7392250000003</v>
       </c>
       <c r="G2" s="1">
         <v>1.658261</v>
       </c>
       <c r="H2" s="1">
-        <v>1167.680000</v>
+        <v>1167.68</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.648000</v>
+        <v>-216.648</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>5979.919081</v>
@@ -511,133 +927,133 @@
         <v>1.661089</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.280000</v>
+        <v>1194.28</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.600000</v>
+        <v>-149.6</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>5990.405003</v>
+        <v>5990.4050029999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.664001</v>
+        <v>1.6640010000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.430000</v>
+        <v>1201.43</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.557000</v>
+        <v>-127.557</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>6000.953950</v>
+        <v>6000.9539500000001</v>
       </c>
       <c r="V2" s="1">
-        <v>1.666932</v>
+        <v>1.6669320000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1208.480000</v>
+        <v>1208.48</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.516000</v>
+        <v>-106.51600000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>6011.390737</v>
+        <v>6011.3907369999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.669831</v>
+        <v>1.6698310000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.450000</v>
+        <v>1215.45</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.362500</v>
+        <v>-89.362499999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>6021.967923</v>
+        <v>6021.9679230000002</v>
       </c>
       <c r="AF2" s="1">
         <v>1.672769</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.857200</v>
+        <v>-84.857200000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6032.733589</v>
+        <v>6032.7335890000004</v>
       </c>
       <c r="AK2" s="1">
         <v>1.675759</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.001800</v>
+        <v>-88.001800000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>6043.487845</v>
+        <v>6043.4878449999997</v>
       </c>
       <c r="AP2" s="1">
         <v>1.678747</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.566600</v>
+        <v>-99.566599999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>6054.481206</v>
+        <v>6054.4812060000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.681800</v>
+        <v>1.6818</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.457000</v>
+        <v>-118.45699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>6066.029559</v>
+        <v>6066.0295589999996</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.685008</v>
+        <v>1.6850080000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.390000</v>
+        <v>1252.3900000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-135.535000</v>
+        <v>-135.535</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>6077.564985</v>
@@ -646,180 +1062,180 @@
         <v>1.688212</v>
       </c>
       <c r="BF2" s="1">
-        <v>1291.140000</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-216.165000</v>
+        <v>-216.16499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>6088.600969</v>
+        <v>6088.6009690000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.691278</v>
+        <v>1.6912780000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL2" s="1">
-        <v>-351.223000</v>
+        <v>-351.22300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>6099.105276</v>
+        <v>6099.1052760000002</v>
       </c>
       <c r="BO2" s="1">
         <v>1.694196</v>
       </c>
       <c r="BP2" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-572.727000</v>
+        <v>-572.72699999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>6109.842638</v>
+        <v>6109.8426380000001</v>
       </c>
       <c r="BT2" s="1">
         <v>1.697179</v>
       </c>
       <c r="BU2" s="1">
-        <v>1597.190000</v>
+        <v>1597.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-823.859000</v>
+        <v>-823.85900000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>6120.602849</v>
+        <v>6120.6028489999999</v>
       </c>
       <c r="BY2" s="1">
         <v>1.700167</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1745.380000</v>
+        <v>1745.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1098.980000</v>
+        <v>-1098.98</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>6131.899765</v>
+        <v>6131.8997650000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.703305</v>
+        <v>1.7033050000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2156.320000</v>
+        <v>2156.3200000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1770.880000</v>
+        <v>-1770.88</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>5959.746325</v>
+        <v>5959.7463250000001</v>
       </c>
       <c r="B3" s="1">
-        <v>1.655485</v>
+        <v>1.6554850000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1145.720000</v>
+        <v>1145.72</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.381000</v>
+        <v>-258.38099999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>5969.851321</v>
+        <v>5969.8513210000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1.658292</v>
+        <v>1.6582920000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.760000</v>
+        <v>1166.76</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.287000</v>
+        <v>-216.28700000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5980.274744</v>
+        <v>5980.2747440000003</v>
       </c>
       <c r="L3" s="1">
         <v>1.661187</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.170000</v>
+        <v>1194.17</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.885000</v>
+        <v>-149.88499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>5990.758154</v>
+        <v>5990.7581540000001</v>
       </c>
       <c r="Q3" s="1">
         <v>1.664099</v>
       </c>
       <c r="R3" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.463000</v>
+        <v>-127.46299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>6001.335836</v>
+        <v>6001.3358360000002</v>
       </c>
       <c r="V3" s="1">
         <v>1.667038</v>
       </c>
       <c r="W3" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.401000</v>
+        <v>-106.401</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>6012.123824</v>
+        <v>6012.1238240000002</v>
       </c>
       <c r="AA3" s="1">
         <v>1.670034</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.590000</v>
+        <v>1215.5899999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.410100</v>
+        <v>-89.4101</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>6022.679185</v>
@@ -828,270 +1244,270 @@
         <v>1.672966</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.990000</v>
+        <v>1219.99</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.886700</v>
+        <v>-84.886700000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>6033.075827</v>
+        <v>6033.0758269999997</v>
       </c>
       <c r="AK3" s="1">
         <v>1.675854</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.860000</v>
+        <v>1226.8599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.983500</v>
+        <v>-87.983500000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>6043.858852</v>
+        <v>6043.8588520000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.678850</v>
+        <v>1.67885</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.544600</v>
+        <v>-99.544600000000003</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>6054.886902</v>
+        <v>6054.8869020000002</v>
       </c>
       <c r="AU3" s="1">
         <v>1.681913</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.447000</v>
+        <v>-118.447</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>6066.710078</v>
+        <v>6066.7100780000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.685197</v>
+        <v>1.6851970000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="BB3" s="1">
-        <v>-135.561000</v>
+        <v>-135.56100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>6078.016840</v>
+        <v>6078.0168400000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>1.688338</v>
+        <v>1.6883379999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1291.130000</v>
+        <v>1291.1300000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-216.135000</v>
+        <v>-216.13499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>6088.708601</v>
+        <v>6088.7086010000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.691308</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.300000</v>
+        <v>1358.3</v>
       </c>
       <c r="BL3" s="1">
-        <v>-351.242000</v>
+        <v>-351.24200000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>6099.538252</v>
+        <v>6099.5382520000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.694316</v>
+        <v>1.6943159999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-572.728000</v>
+        <v>-572.72799999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>6110.305432</v>
+        <v>6110.3054320000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.697307</v>
+        <v>1.6973069999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1597.210000</v>
+        <v>1597.21</v>
       </c>
       <c r="BV3" s="1">
-        <v>-823.915000</v>
+        <v>-823.91499999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>6121.070079</v>
+        <v>6121.0700790000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.700297</v>
+        <v>1.7002969999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1745.550000</v>
+        <v>1745.55</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1099.030000</v>
+        <v>-1099.03</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>6132.467183</v>
+        <v>6132.4671829999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.703463</v>
+        <v>1.7034629999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2156.230000</v>
+        <v>2156.23</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1770.440000</v>
+        <v>-1770.44</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>5960.097491</v>
+        <v>5960.0974910000004</v>
       </c>
       <c r="B4" s="1">
         <v>1.655583</v>
       </c>
       <c r="C4" s="1">
-        <v>1145.780000</v>
+        <v>1145.78</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.479000</v>
+        <v>-258.47899999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>5970.177158</v>
+        <v>5970.1771580000004</v>
       </c>
       <c r="G4" s="1">
-        <v>1.658383</v>
+        <v>1.6583829999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.700000</v>
+        <v>1166.7</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.516000</v>
+        <v>-215.51599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>5980.623896</v>
+        <v>5980.6238960000001</v>
       </c>
       <c r="L4" s="1">
         <v>1.661284</v>
       </c>
       <c r="M4" s="1">
-        <v>1194.060000</v>
+        <v>1194.06</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.783000</v>
+        <v>-149.78299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>5991.455034</v>
+        <v>5991.4550339999996</v>
       </c>
       <c r="Q4" s="1">
         <v>1.664293</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.428000</v>
+        <v>-127.428</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>6002.019820</v>
+        <v>6002.0198200000004</v>
       </c>
       <c r="V4" s="1">
-        <v>1.667228</v>
+        <v>1.6672279999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.579000</v>
+        <v>-106.57899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>6012.473006</v>
+        <v>6012.4730060000002</v>
       </c>
       <c r="AA4" s="1">
         <v>1.670131</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.478800</v>
+        <v>-89.478800000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>6023.063125</v>
+        <v>6023.0631249999997</v>
       </c>
       <c r="AF4" s="1">
         <v>1.673073</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.860200</v>
+        <v>-84.860200000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>6033.423522</v>
@@ -1100,180 +1516,180 @@
         <v>1.675951</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.988300</v>
+        <v>-87.988299999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>6044.522500</v>
+        <v>6044.5225</v>
       </c>
       <c r="AP4" s="1">
-        <v>1.679034</v>
+        <v>1.6790339999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.540000</v>
+        <v>1234.54</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.582300</v>
+        <v>-99.582300000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>6055.565962</v>
+        <v>6055.5659619999997</v>
       </c>
       <c r="AU4" s="1">
         <v>1.682102</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.430000</v>
+        <v>-118.43</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>6067.126183</v>
+        <v>6067.1261830000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.685313</v>
+        <v>1.6853130000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-135.583000</v>
+        <v>-135.583</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>6078.377432</v>
+        <v>6078.3774320000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.688438</v>
+        <v>1.6884380000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1291.160000</v>
+        <v>1291.1600000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-216.165000</v>
+        <v>-216.16499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>6089.083577</v>
+        <v>6089.0835770000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.691412</v>
+        <v>1.6914119999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.270000</v>
+        <v>1358.27</v>
       </c>
       <c r="BL4" s="1">
-        <v>-351.292000</v>
+        <v>-351.29199999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>6099.929626</v>
+        <v>6099.9296260000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.694425</v>
+        <v>1.6944250000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-572.718000</v>
+        <v>-572.71799999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>6110.739913</v>
+        <v>6110.7399130000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.697428</v>
+        <v>1.6974279999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1597.280000</v>
+        <v>1597.28</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.945000</v>
+        <v>-823.94500000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>6121.514990</v>
+        <v>6121.5149899999997</v>
       </c>
       <c r="BY4" s="1">
         <v>1.700421</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1745.450000</v>
+        <v>1745.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1099.160000</v>
+        <v>-1099.1600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>6132.987953</v>
+        <v>6132.9879529999998</v>
       </c>
       <c r="CD4" s="1">
         <v>1.703608</v>
       </c>
       <c r="CE4" s="1">
-        <v>2158.000000</v>
+        <v>2158</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1770.790000</v>
+        <v>-1770.79</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>5960.438246</v>
+        <v>5960.4382459999997</v>
       </c>
       <c r="B5" s="1">
-        <v>1.655677</v>
+        <v>1.6556770000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1145.480000</v>
+        <v>1145.48</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.248000</v>
+        <v>-258.24799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5970.525386</v>
+        <v>5970.5253860000003</v>
       </c>
       <c r="G5" s="1">
         <v>1.658479</v>
       </c>
       <c r="H5" s="1">
-        <v>1167.490000</v>
+        <v>1167.49</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.322000</v>
+        <v>-216.322</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>5981.314359</v>
@@ -1282,692 +1698,692 @@
         <v>1.661476</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.515000</v>
+        <v>-149.51499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>5991.800251</v>
+        <v>5991.8002509999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.664389</v>
+        <v>1.6643889999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.473000</v>
+        <v>-127.473</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>6002.361100</v>
+        <v>6002.3611000000001</v>
       </c>
       <c r="V5" s="1">
-        <v>1.667323</v>
+        <v>1.6673230000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.570000</v>
+        <v>-106.57</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>6012.821198</v>
+        <v>6012.8211979999996</v>
       </c>
       <c r="AA5" s="1">
         <v>1.670228</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.550000</v>
+        <v>1215.55</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.222000</v>
+        <v>-89.221999999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>6023.683585</v>
+        <v>6023.6835849999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.673245</v>
+        <v>1.6732450000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.864400</v>
+        <v>-84.864400000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>6034.076753</v>
+        <v>6034.0767530000003</v>
       </c>
       <c r="AK5" s="1">
         <v>1.676132</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.850000</v>
+        <v>1226.8499999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.981800</v>
+        <v>-87.981800000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>6044.957987</v>
+        <v>6044.9579869999998</v>
       </c>
       <c r="AP5" s="1">
         <v>1.679155</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.546500</v>
+        <v>-99.546499999999995</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>6056.003892</v>
+        <v>6056.0038919999997</v>
       </c>
       <c r="AU5" s="1">
         <v>1.682223</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.220000</v>
+        <v>1244.22</v>
       </c>
       <c r="AW5" s="1">
-        <v>-118.455000</v>
+        <v>-118.455</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>6067.512565</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.685420</v>
+        <v>1.6854199999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="BB5" s="1">
-        <v>-135.574000</v>
+        <v>-135.57400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>6078.738022</v>
+        <v>6078.7380219999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.688538</v>
+        <v>1.6885380000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.130000</v>
+        <v>1291.1300000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-216.149000</v>
+        <v>-216.149</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>6089.459060</v>
+        <v>6089.4590600000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.691516</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL5" s="1">
-        <v>-351.240000</v>
+        <v>-351.24</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>6100.356154</v>
+        <v>6100.3561540000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.694543</v>
+        <v>1.6945429999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1468.780000</v>
+        <v>1468.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-572.797000</v>
+        <v>-572.79700000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>6111.151085</v>
+        <v>6111.1510850000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.697542</v>
+        <v>1.6975420000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1597.300000</v>
+        <v>1597.3</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.024000</v>
+        <v>-824.024</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>6121.946013</v>
+        <v>6121.9460129999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.700541</v>
+        <v>1.7005410000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1745.420000</v>
+        <v>1745.42</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1099.170000</v>
+        <v>-1099.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>6133.505278</v>
+        <v>6133.5052779999996</v>
       </c>
       <c r="CD5" s="1">
         <v>1.703751</v>
       </c>
       <c r="CE5" s="1">
-        <v>2157.820000</v>
+        <v>2157.8200000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1771.050000</v>
+        <v>-1771.05</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>5961.119714</v>
+        <v>5961.1197140000004</v>
       </c>
       <c r="B6" s="1">
         <v>1.655867</v>
       </c>
       <c r="C6" s="1">
-        <v>1145.660000</v>
+        <v>1145.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.065000</v>
+        <v>-258.065</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>5971.218261</v>
       </c>
       <c r="G6" s="1">
-        <v>1.658672</v>
+        <v>1.6586719999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.710000</v>
+        <v>1166.71</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.992000</v>
+        <v>-215.99199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>5981.658583</v>
+        <v>5981.6585830000004</v>
       </c>
       <c r="L6" s="1">
         <v>1.661572</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.510000</v>
+        <v>-149.51</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5992.149929</v>
+        <v>5992.1499290000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.664486</v>
+        <v>1.6644859999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.520000</v>
+        <v>1201.52</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.511000</v>
+        <v>-127.511</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>6002.707771</v>
+        <v>6002.7077710000003</v>
       </c>
       <c r="V6" s="1">
         <v>1.667419</v>
       </c>
       <c r="W6" s="1">
-        <v>1208.430000</v>
+        <v>1208.43</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.589000</v>
+        <v>-106.589</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>6013.475420</v>
+        <v>6013.4754199999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.670410</v>
+        <v>1.67041</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.570000</v>
+        <v>1215.57</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.459400</v>
+        <v>-89.459400000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>6024.066526</v>
+        <v>6024.0665259999996</v>
       </c>
       <c r="AF6" s="1">
         <v>1.673352</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.853600</v>
+        <v>-84.8536</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>6034.470114</v>
+        <v>6034.4701139999997</v>
       </c>
       <c r="AK6" s="1">
         <v>1.676242</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.810000</v>
+        <v>1226.81</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.005600</v>
+        <v>-88.005600000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>6045.330483</v>
+        <v>6045.3304829999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.679258</v>
+        <v>1.6792579999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.570000</v>
+        <v>1234.57</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.557500</v>
+        <v>-99.557500000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>6056.366964</v>
+        <v>6056.3669639999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.682324</v>
+        <v>1.6823239999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.220000</v>
+        <v>1244.22</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.425000</v>
+        <v>-118.425</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>6067.891013</v>
+        <v>6067.8910130000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.685525</v>
+        <v>1.6855249999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="BB6" s="1">
-        <v>-135.561000</v>
+        <v>-135.56100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>6079.150198</v>
+        <v>6079.1501980000003</v>
       </c>
       <c r="BE6" s="1">
         <v>1.688653</v>
       </c>
       <c r="BF6" s="1">
-        <v>1291.130000</v>
+        <v>1291.1300000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-216.153000</v>
+        <v>-216.15299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>6089.878168</v>
+        <v>6089.8781680000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.691633</v>
+        <v>1.6916329999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL6" s="1">
-        <v>-351.242000</v>
+        <v>-351.24200000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>6100.753945</v>
+        <v>6100.7539450000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.694654</v>
+        <v>1.6946540000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-572.710000</v>
+        <v>-572.71</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>6111.580652</v>
+        <v>6111.5806519999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.697661</v>
+        <v>1.6976610000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1597.260000</v>
+        <v>1597.26</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.119000</v>
+        <v>-824.11900000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>6122.367150</v>
+        <v>6122.36715</v>
       </c>
       <c r="BY6" s="1">
         <v>1.700658</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1745.310000</v>
+        <v>1745.31</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1099.050000</v>
+        <v>-1099.05</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>6134.058349</v>
+        <v>6134.0583489999999</v>
       </c>
       <c r="CD6" s="1">
         <v>1.703905</v>
       </c>
       <c r="CE6" s="1">
-        <v>2156.390000</v>
+        <v>2156.39</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1770.900000</v>
+        <v>-1770.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>5961.468401</v>
+        <v>5961.4684010000001</v>
       </c>
       <c r="B7" s="1">
-        <v>1.655963</v>
+        <v>1.6559630000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1145.590000</v>
+        <v>1145.5899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.102000</v>
+        <v>-258.10199999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>5971.562484</v>
       </c>
       <c r="G7" s="1">
-        <v>1.658767</v>
+        <v>1.6587670000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.680000</v>
+        <v>1166.68</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.160000</v>
+        <v>-216.16</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>5982.002808</v>
+        <v>5982.0028080000002</v>
       </c>
       <c r="L7" s="1">
         <v>1.661667</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.310000</v>
+        <v>1194.31</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.436000</v>
+        <v>-149.43600000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>5992.804649</v>
+        <v>5992.8046489999997</v>
       </c>
       <c r="Q7" s="1">
         <v>1.664668</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.502000</v>
+        <v>-127.502</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>6003.366636</v>
+        <v>6003.3666359999997</v>
       </c>
       <c r="V7" s="1">
         <v>1.667602</v>
       </c>
       <c r="W7" s="1">
-        <v>1208.390000</v>
+        <v>1208.3900000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.457000</v>
+        <v>-106.45699999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>6013.866269</v>
+        <v>6013.8662690000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.670518</v>
+        <v>1.6705179999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.441100</v>
+        <v>-89.441100000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>6024.414747</v>
+        <v>6024.4147469999998</v>
       </c>
       <c r="AF7" s="1">
         <v>1.673449</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.990000</v>
+        <v>1219.99</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.874500</v>
+        <v>-84.874499999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>6034.816784</v>
+        <v>6034.8167839999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.676338</v>
+        <v>1.6763380000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.850000</v>
+        <v>1226.8499999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.004900</v>
+        <v>-88.004900000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>6045.679171</v>
+        <v>6045.6791709999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.679355</v>
+        <v>1.6793549999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.563700</v>
+        <v>-99.563699999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>6056.905125</v>
+        <v>6056.9051250000002</v>
       </c>
       <c r="AU7" s="1">
         <v>1.682474</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW7" s="1">
-        <v>-118.462000</v>
+        <v>-118.462</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>6068.311125</v>
+        <v>6068.3111250000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.685642</v>
+        <v>1.6856420000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="BB7" s="1">
-        <v>-135.578000</v>
+        <v>-135.578</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>6079.459944</v>
+        <v>6079.4599440000002</v>
       </c>
       <c r="BE7" s="1">
         <v>1.688739</v>
       </c>
       <c r="BF7" s="1">
-        <v>1291.130000</v>
+        <v>1291.1300000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-216.164000</v>
+        <v>-216.16399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>6090.223880</v>
+        <v>6090.2238799999996</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.691729</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL7" s="1">
-        <v>-351.239000</v>
+        <v>-351.23899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>6101.174576</v>
+        <v>6101.1745760000003</v>
       </c>
       <c r="BO7" s="1">
         <v>1.694771</v>
       </c>
       <c r="BP7" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-572.795000</v>
+        <v>-572.79499999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>6112.012138</v>
@@ -1976,180 +2392,180 @@
         <v>1.697781</v>
       </c>
       <c r="BU7" s="1">
-        <v>1597.420000</v>
+        <v>1597.42</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.130000</v>
+        <v>-824.13</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>6122.789212</v>
+        <v>6122.7892119999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.700775</v>
+        <v>1.7007749999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1745.410000</v>
+        <v>1745.41</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1099.090000</v>
+        <v>-1099.0899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>6134.586557</v>
+        <v>6134.5865569999996</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.704052</v>
+        <v>1.7040519999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2158.340000</v>
+        <v>2158.34</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1771.000000</v>
+        <v>-1771</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>5961.808657</v>
+        <v>5961.8086569999996</v>
       </c>
       <c r="B8" s="1">
         <v>1.656058</v>
       </c>
       <c r="C8" s="1">
-        <v>1145.680000</v>
+        <v>1145.68</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.552000</v>
+        <v>-258.55200000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>5971.909722</v>
+        <v>5971.9097220000003</v>
       </c>
       <c r="G8" s="1">
-        <v>1.658864</v>
+        <v>1.6588639999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1167.040000</v>
+        <v>1167.04</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.237000</v>
+        <v>-216.23699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>5982.664437</v>
+        <v>5982.6644370000004</v>
       </c>
       <c r="L8" s="1">
         <v>1.661851</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.120000</v>
+        <v>1194.1199999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.555000</v>
+        <v>-149.55500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>5993.199463</v>
+        <v>5993.1994629999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.664778</v>
+        <v>1.6647780000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.483000</v>
+        <v>-127.483</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>6003.738458</v>
+        <v>6003.7384579999998</v>
       </c>
       <c r="V8" s="1">
         <v>1.667705</v>
       </c>
       <c r="W8" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.457000</v>
+        <v>-106.45699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>6014.216444</v>
+        <v>6014.2164439999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.670616</v>
+        <v>1.6706160000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.460200</v>
+        <v>-89.4602</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>6024.756926</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.673544</v>
+        <v>1.6735439999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.980000</v>
+        <v>1219.98</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.863700</v>
+        <v>-84.863699999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6035.165968</v>
+        <v>6035.1659680000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.676435</v>
+        <v>1.6764349999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.880000</v>
+        <v>1226.8800000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.987100</v>
+        <v>-87.987099999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>6046.092834</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.679470</v>
+        <v>1.67947</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.570000</v>
+        <v>1234.57</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.531500</v>
+        <v>-99.531499999999994</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>6057.460642</v>
@@ -2158,28 +2574,28 @@
         <v>1.682628</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.462000</v>
+        <v>-118.462</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>6068.610943</v>
+        <v>6068.6109429999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.685725</v>
+        <v>1.6857249999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.460000</v>
+        <v>1252.46</v>
       </c>
       <c r="BB8" s="1">
-        <v>-135.563000</v>
+        <v>-135.56299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>6079.821782</v>
@@ -2188,512 +2604,512 @@
         <v>1.688839</v>
       </c>
       <c r="BF8" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-216.126000</v>
+        <v>-216.126</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>6090.606792</v>
+        <v>6090.6067919999996</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.691835</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.270000</v>
+        <v>1358.27</v>
       </c>
       <c r="BL8" s="1">
-        <v>-351.251000</v>
+        <v>-351.25099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>6101.569896</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.694881</v>
+        <v>1.6948810000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1468.840000</v>
+        <v>1468.84</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-572.734000</v>
+        <v>-572.73400000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>6112.436250</v>
+        <v>6112.4362499999997</v>
       </c>
       <c r="BT8" s="1">
         <v>1.697899</v>
       </c>
       <c r="BU8" s="1">
-        <v>1597.380000</v>
+        <v>1597.38</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.240000</v>
+        <v>-824.24</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>6123.218285</v>
+        <v>6123.2182849999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.700894</v>
+        <v>1.7008939999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1745.500000</v>
+        <v>1745.5</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1099.190000</v>
+        <v>-1099.19</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>6135.102424</v>
+        <v>6135.1024239999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.704195</v>
+        <v>1.7041949999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2157.870000</v>
+        <v>2157.87</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1771.550000</v>
+        <v>-1771.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>5962.460402</v>
+        <v>5962.4604019999997</v>
       </c>
       <c r="B9" s="1">
         <v>1.656239</v>
       </c>
       <c r="C9" s="1">
-        <v>1145.900000</v>
+        <v>1145.9000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.892000</v>
+        <v>-257.892</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>5972.616980</v>
+        <v>5972.6169799999998</v>
       </c>
       <c r="G9" s="1">
-        <v>1.659060</v>
+        <v>1.65906</v>
       </c>
       <c r="H9" s="1">
-        <v>1167.420000</v>
+        <v>1167.42</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.405000</v>
+        <v>-216.405</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>5983.038949</v>
+        <v>5983.0389489999998</v>
       </c>
       <c r="L9" s="1">
-        <v>1.661955</v>
+        <v>1.6619550000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.640000</v>
+        <v>1193.6400000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.724000</v>
+        <v>-149.72399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>5993.546663</v>
+        <v>5993.5466630000001</v>
       </c>
       <c r="Q9" s="1">
         <v>1.664874</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.550000</v>
+        <v>1201.55</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.459000</v>
+        <v>-127.459</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>6004.081193</v>
       </c>
       <c r="V9" s="1">
-        <v>1.667800</v>
+        <v>1.6677999999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1208.420000</v>
+        <v>1208.42</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.517000</v>
+        <v>-106.517</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>6014.564667</v>
+        <v>6014.5646669999996</v>
       </c>
       <c r="AA9" s="1">
         <v>1.670712</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.570000</v>
+        <v>1215.57</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.346300</v>
+        <v>-89.346299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>6025.194403</v>
+        <v>6025.1944030000004</v>
       </c>
       <c r="AF9" s="1">
         <v>1.673665</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.875700</v>
+        <v>-84.875699999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>6035.579135</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.676550</v>
+        <v>1.67655</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.850000</v>
+        <v>1226.8499999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.989800</v>
+        <v>-87.989800000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>6046.409777</v>
+        <v>6046.4097769999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.679558</v>
+        <v>1.6795580000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.570000</v>
+        <v>1234.57</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.541800</v>
+        <v>-99.541799999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>6057.857442</v>
+        <v>6057.8574420000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.682738</v>
+        <v>1.6827380000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.442000</v>
+        <v>-118.44199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>6068.966835</v>
+        <v>6068.9668350000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>1.685824</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="BB9" s="1">
-        <v>-135.574000</v>
+        <v>-135.57400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>6080.181380</v>
+        <v>6080.18138</v>
       </c>
       <c r="BE9" s="1">
         <v>1.688939</v>
       </c>
       <c r="BF9" s="1">
-        <v>1291.160000</v>
+        <v>1291.1600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-216.145000</v>
+        <v>-216.14500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>6090.988214</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1.691941</v>
+        <v>1.6919409999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL9" s="1">
-        <v>-351.230000</v>
+        <v>-351.23</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>6101.992455</v>
+        <v>6101.9924549999996</v>
       </c>
       <c r="BO9" s="1">
         <v>1.694998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1468.740000</v>
+        <v>1468.74</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-572.763000</v>
+        <v>-572.76300000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>6112.852362</v>
+        <v>6112.8523619999996</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.698015</v>
+        <v>1.6980150000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1597.430000</v>
+        <v>1597.43</v>
       </c>
       <c r="BV9" s="1">
-        <v>-824.266000</v>
+        <v>-824.26599999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>6123.622560</v>
+        <v>6123.6225599999998</v>
       </c>
       <c r="BY9" s="1">
         <v>1.701006</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1745.420000</v>
+        <v>1745.42</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1099.250000</v>
+        <v>-1099.25</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>6135.656923</v>
+        <v>6135.6569229999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>1.704349</v>
+        <v>1.7043489999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2155.790000</v>
+        <v>2155.79</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1770.380000</v>
+        <v>-1770.38</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>5962.834881</v>
+        <v>5962.8348809999998</v>
       </c>
       <c r="B10" s="1">
-        <v>1.656343</v>
+        <v>1.6563429999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1145.900000</v>
+        <v>1145.9000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.044000</v>
+        <v>-258.04399999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>5972.943842</v>
+        <v>5972.9438419999997</v>
       </c>
       <c r="G10" s="1">
         <v>1.659151</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.370000</v>
+        <v>1166.3699999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.619000</v>
+        <v>-215.619</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>5983.383168</v>
+        <v>5983.3831680000003</v>
       </c>
       <c r="L10" s="1">
-        <v>1.662051</v>
+        <v>1.6620509999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1194.090000</v>
+        <v>1194.0899999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.593000</v>
+        <v>-149.59299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>5993.892870</v>
+        <v>5993.8928699999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.664970</v>
+        <v>1.6649700000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.520000</v>
+        <v>1201.52</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.489000</v>
+        <v>-127.489</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>6004.422969</v>
+        <v>6004.4229690000002</v>
       </c>
       <c r="V10" s="1">
-        <v>1.667895</v>
+        <v>1.6678949999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1208.380000</v>
+        <v>1208.3800000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.514000</v>
+        <v>-106.514</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>6014.985243</v>
+        <v>6014.9852430000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.670829</v>
+        <v>1.6708289999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.580000</v>
+        <v>1215.58</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.448100</v>
+        <v>-89.448099999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>6025.455293</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.673738</v>
+        <v>1.6737379999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.990000</v>
+        <v>1219.99</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.851200</v>
+        <v>-84.851200000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6035.866319</v>
+        <v>6035.8663189999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.676630</v>
+        <v>1.6766300000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.860000</v>
+        <v>1226.8599999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.991000</v>
+        <v>-87.991</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>6046.769907</v>
+        <v>6046.7699069999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.679658</v>
+        <v>1.6796580000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.548400</v>
+        <v>-99.548400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>6058.221506</v>
+        <v>6058.2215059999999</v>
       </c>
       <c r="AU10" s="1">
         <v>1.682839</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW10" s="1">
-        <v>-118.447000</v>
+        <v>-118.447</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>6069.326435</v>
+        <v>6069.3264349999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>1.685924</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.390000</v>
+        <v>1252.3900000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-135.585000</v>
+        <v>-135.58500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>6080.908547</v>
@@ -2702,422 +3118,422 @@
         <v>1.689141</v>
       </c>
       <c r="BF10" s="1">
-        <v>1291.130000</v>
+        <v>1291.1300000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-216.158000</v>
+        <v>-216.15799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>6091.765447</v>
+        <v>6091.7654469999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.692157</v>
+        <v>1.6921569999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL10" s="1">
-        <v>-351.269000</v>
+        <v>-351.26900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>6102.388791</v>
+        <v>6102.3887910000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.695108</v>
+        <v>1.6951080000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1468.840000</v>
+        <v>1468.84</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-572.786000</v>
+        <v>-572.78599999999994</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>6113.279913</v>
+        <v>6113.2799130000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.698133</v>
+        <v>1.6981329999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1597.330000</v>
+        <v>1597.33</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.409000</v>
+        <v>-824.40899999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>6124.090716</v>
+        <v>6124.0907159999997</v>
       </c>
       <c r="BY10" s="1">
         <v>1.701136</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1745.370000</v>
+        <v>1745.37</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1099.300000</v>
+        <v>-1099.3</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>6136.491227</v>
+        <v>6136.4912270000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.704581</v>
+        <v>1.7045809999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2157.730000</v>
+        <v>2157.73</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1771.440000</v>
+        <v>-1771.44</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>5963.176623</v>
+        <v>5963.1766230000003</v>
       </c>
       <c r="B11" s="1">
-        <v>1.656438</v>
+        <v>1.6564380000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1145.810000</v>
+        <v>1145.81</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.074000</v>
+        <v>-258.07400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5973.287570</v>
+        <v>5973.2875700000004</v>
       </c>
       <c r="G11" s="1">
-        <v>1.659247</v>
+        <v>1.6592469999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.500000</v>
+        <v>1166.5</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.999000</v>
+        <v>-215.999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>5983.731332</v>
+        <v>5983.7313320000003</v>
       </c>
       <c r="L11" s="1">
         <v>1.662148</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.940000</v>
+        <v>1193.94</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.710000</v>
+        <v>-149.71</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>5994.303591</v>
+        <v>5994.3035909999999</v>
       </c>
       <c r="Q11" s="1">
         <v>1.665084</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.515000</v>
+        <v>-127.515</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>6004.840600</v>
+        <v>6004.8406000000004</v>
       </c>
       <c r="V11" s="1">
-        <v>1.668011</v>
+        <v>1.6680109999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.480000</v>
+        <v>-106.48</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>6015.263498</v>
+        <v>6015.2634980000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.670907</v>
+        <v>1.6709069999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.425700</v>
+        <v>-89.425700000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>6025.800509</v>
+        <v>6025.8005089999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.673833</v>
+        <v>1.6738329999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.861500</v>
+        <v>-84.861500000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>6036.217486</v>
+        <v>6036.2174859999996</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.676727</v>
+        <v>1.6767270000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.951200</v>
+        <v>-87.9512</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>6047.129545</v>
+        <v>6047.1295449999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.679758</v>
+        <v>1.6797580000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.580000</v>
+        <v>1234.58</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.570600</v>
+        <v>-99.570599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>6058.953106</v>
+        <v>6058.9531059999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.683043</v>
+        <v>1.6830430000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.469000</v>
+        <v>-118.46899999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>6070.044146</v>
+        <v>6070.0441460000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>1.686123</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-135.550000</v>
+        <v>-135.55000000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>6081.297379</v>
+        <v>6081.2973789999996</v>
       </c>
       <c r="BE11" s="1">
         <v>1.689249</v>
       </c>
       <c r="BF11" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-216.159000</v>
+        <v>-216.15899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>6092.139926</v>
+        <v>6092.1399259999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>1.692261</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL11" s="1">
-        <v>-351.231000</v>
+        <v>-351.23099999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>6102.810359</v>
+        <v>6102.8103590000001</v>
       </c>
       <c r="BO11" s="1">
         <v>1.695225</v>
       </c>
       <c r="BP11" s="1">
-        <v>1468.820000</v>
+        <v>1468.82</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-572.741000</v>
+        <v>-572.74099999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>6114.008073</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.698336</v>
+        <v>1.6983360000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1597.340000</v>
+        <v>1597.34</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.365000</v>
+        <v>-824.36500000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>6125.102058</v>
+        <v>6125.1020580000004</v>
       </c>
       <c r="BY11" s="1">
         <v>1.701417</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1745.400000</v>
+        <v>1745.4</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1099.180000</v>
+        <v>-1099.18</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>6136.738256</v>
+        <v>6136.7382559999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.704650</v>
+        <v>1.70465</v>
       </c>
       <c r="CE11" s="1">
-        <v>2158.330000</v>
+        <v>2158.33</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1769.310000</v>
+        <v>-1769.31</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>5963.519372</v>
+        <v>5963.5193719999997</v>
       </c>
       <c r="B12" s="1">
         <v>1.656533</v>
       </c>
       <c r="C12" s="1">
-        <v>1145.630000</v>
+        <v>1145.6300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.178000</v>
+        <v>-258.178</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>5973.705697</v>
+        <v>5973.7056970000003</v>
       </c>
       <c r="G12" s="1">
-        <v>1.659363</v>
+        <v>1.6593629999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1167.400000</v>
+        <v>1167.4000000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.605000</v>
+        <v>-216.60499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5984.137060</v>
+        <v>5984.13706</v>
       </c>
       <c r="L12" s="1">
-        <v>1.662260</v>
+        <v>1.6622600000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.970000</v>
+        <v>1193.97</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.158000</v>
+        <v>-150.15799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>5994.597190</v>
+        <v>5994.5971900000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.665166</v>
+        <v>1.6651659999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.501000</v>
+        <v>-127.501</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>6005.133704</v>
+        <v>6005.1337039999999</v>
       </c>
       <c r="V12" s="1">
         <v>1.668093</v>
       </c>
       <c r="W12" s="1">
-        <v>1208.420000</v>
+        <v>1208.42</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.639000</v>
+        <v>-106.639</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>6015.611226</v>
@@ -3126,1101 +3542,1101 @@
         <v>1.671003</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.408800</v>
+        <v>-89.408799999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>6026.146220</v>
+        <v>6026.1462199999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.673930</v>
+        <v>1.6739299999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.990000</v>
+        <v>1219.99</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.890500</v>
+        <v>-84.890500000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>6036.563200</v>
+        <v>6036.5631999999996</v>
       </c>
       <c r="AK12" s="1">
         <v>1.676823</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.870000</v>
+        <v>1226.8699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.987500</v>
+        <v>-87.987499999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>6047.856112</v>
+        <v>6047.8561120000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.679960</v>
+        <v>1.6799599999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.547100</v>
+        <v>-99.5471</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>6059.341968</v>
+        <v>6059.3419679999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.683151</v>
+        <v>1.6831510000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.220000</v>
+        <v>1244.22</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.459000</v>
+        <v>-118.459</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>6070.402754</v>
+        <v>6070.4027539999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>1.686223</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-135.577000</v>
+        <v>-135.577</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>6081.647556</v>
+        <v>6081.6475559999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.689347</v>
+        <v>1.6893469999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-216.143000</v>
+        <v>-216.143</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>6092.818452</v>
+        <v>6092.8184520000004</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.692450</v>
+        <v>1.69245</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-351.197000</v>
+        <v>-351.197</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>6103.513686</v>
+        <v>6103.5136860000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.695420</v>
+        <v>1.6954199999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-572.741000</v>
+        <v>-572.74099999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>6114.123407</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.698368</v>
+        <v>1.6983680000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1597.310000</v>
+        <v>1597.31</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.417000</v>
+        <v>-824.41700000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>6125.407593</v>
+        <v>6125.4075929999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.701502</v>
+        <v>1.7015020000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1745.380000</v>
+        <v>1745.38</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1099.170000</v>
+        <v>-1099.17</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>6137.274377</v>
+        <v>6137.2743769999997</v>
       </c>
       <c r="CD12" s="1">
         <v>1.704798</v>
       </c>
       <c r="CE12" s="1">
-        <v>2156.460000</v>
+        <v>2156.46</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1769.960000</v>
+        <v>-1769.96</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>5963.945422</v>
+        <v>5963.9454219999998</v>
       </c>
       <c r="B13" s="1">
         <v>1.656652</v>
       </c>
       <c r="C13" s="1">
-        <v>1145.650000</v>
+        <v>1145.6500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.040000</v>
+        <v>-258.04000000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>5973.985939</v>
+        <v>5973.9859390000001</v>
       </c>
       <c r="G13" s="1">
-        <v>1.659441</v>
+        <v>1.6594409999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1167.200000</v>
+        <v>1167.2</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.783000</v>
+        <v>-215.78299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>5984.435159</v>
+        <v>5984.4351589999997</v>
       </c>
       <c r="L13" s="1">
-        <v>1.662343</v>
+        <v>1.6623429999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.970000</v>
+        <v>1193.97</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.718000</v>
+        <v>-149.71799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>5994.944887</v>
+        <v>5994.9448869999997</v>
       </c>
       <c r="Q13" s="1">
         <v>1.665262</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.494000</v>
+        <v>-127.494</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>6005.485369</v>
       </c>
       <c r="V13" s="1">
-        <v>1.668190</v>
+        <v>1.6681900000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.618000</v>
+        <v>-106.61799999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>6015.957434</v>
+        <v>6015.9574339999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.671099</v>
+        <v>1.6710989999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.560000</v>
+        <v>1215.56</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.450400</v>
+        <v>-89.450400000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>6026.833216</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.674120</v>
+        <v>1.6741200000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.990000</v>
+        <v>1219.99</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.853300</v>
+        <v>-84.853300000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>6037.259085</v>
+        <v>6037.2590849999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.677016</v>
+        <v>1.6770160000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.993900</v>
+        <v>-87.993899999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>6048.236047</v>
+        <v>6048.2360470000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.680066</v>
+        <v>1.6800660000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.563100</v>
+        <v>-99.563100000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>6059.708511</v>
+        <v>6059.7085109999998</v>
       </c>
       <c r="AU13" s="1">
         <v>1.683252</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.453000</v>
+        <v>-118.453</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>6070.762353</v>
+        <v>6070.7623530000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>1.686323</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="BB13" s="1">
-        <v>-135.555000</v>
+        <v>-135.55500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>6082.330050</v>
+        <v>6082.3300499999996</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.689536</v>
+        <v>1.6895359999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1291.110000</v>
+        <v>1291.1099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-216.148000</v>
+        <v>-216.148</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>6092.927587</v>
+        <v>6092.9275870000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.692480</v>
+        <v>1.69248</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.320000</v>
+        <v>1358.32</v>
       </c>
       <c r="BL13" s="1">
-        <v>-351.264000</v>
+        <v>-351.26400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>6103.628262</v>
+        <v>6103.6282620000002</v>
       </c>
       <c r="BO13" s="1">
         <v>1.695452</v>
       </c>
       <c r="BP13" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-572.734000</v>
+        <v>-572.73400000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>6114.562567</v>
+        <v>6114.5625669999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.698490</v>
+        <v>1.6984900000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1597.430000</v>
+        <v>1597.43</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.497000</v>
+        <v>-824.49699999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>6125.801417</v>
+        <v>6125.8014169999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.701612</v>
+        <v>1.7016119999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1745.270000</v>
+        <v>1745.27</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1099.280000</v>
+        <v>-1099.28</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>6137.802616</v>
+        <v>6137.8026159999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.704945</v>
+        <v>1.7049449999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2158.470000</v>
+        <v>2158.4699999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1770.410000</v>
+        <v>-1770.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>5964.222223</v>
+        <v>5964.2222229999998</v>
       </c>
       <c r="B14" s="1">
         <v>1.656728</v>
       </c>
       <c r="C14" s="1">
-        <v>1145.640000</v>
+        <v>1145.6400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.144000</v>
+        <v>-258.14400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>5974.329168</v>
+        <v>5974.3291680000002</v>
       </c>
       <c r="G14" s="1">
-        <v>1.659536</v>
+        <v>1.6595359999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1167.390000</v>
+        <v>1167.3900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.485000</v>
+        <v>-216.48500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>5984.773959</v>
+        <v>5984.7739590000001</v>
       </c>
       <c r="L14" s="1">
-        <v>1.662437</v>
+        <v>1.6624369999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.757000</v>
+        <v>-149.75700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>5995.294068</v>
+        <v>5995.2940680000002</v>
       </c>
       <c r="Q14" s="1">
         <v>1.665359</v>
       </c>
       <c r="R14" s="1">
-        <v>1201.400000</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.497000</v>
+        <v>-127.497</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>6005.825660</v>
+        <v>6005.8256600000004</v>
       </c>
       <c r="V14" s="1">
         <v>1.668285</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.470000</v>
+        <v>1208.47</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.599000</v>
+        <v>-106.599</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>6016.655768</v>
+        <v>6016.6557679999996</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.671293</v>
+        <v>1.6712929999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.550000</v>
+        <v>1215.55</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.516300</v>
+        <v>-89.516300000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>6027.173461</v>
+        <v>6027.1734610000003</v>
       </c>
       <c r="AF14" s="1">
         <v>1.674215</v>
       </c>
       <c r="AG14" s="1">
-        <v>1220.000000</v>
+        <v>1220</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.901800</v>
+        <v>-84.901799999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>6037.610750</v>
+        <v>6037.6107499999998</v>
       </c>
       <c r="AK14" s="1">
         <v>1.677114</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.850000</v>
+        <v>1226.8499999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.005300</v>
+        <v>-88.005300000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>6048.594691</v>
+        <v>6048.5946910000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.680165</v>
+        <v>1.6801649999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.573200</v>
+        <v>-99.5732</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>6060.377119</v>
+        <v>6060.3771189999998</v>
       </c>
       <c r="AU14" s="1">
         <v>1.683438</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.445000</v>
+        <v>-118.44499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>6071.429474</v>
+        <v>6071.4294739999996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.686508</v>
+        <v>1.6865079999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="BB14" s="1">
-        <v>-135.568000</v>
+        <v>-135.56800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>6082.774466</v>
+        <v>6082.7744659999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.689660</v>
+        <v>1.6896599999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1291.090000</v>
+        <v>1291.0899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-216.145000</v>
+        <v>-216.14500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>6093.288661</v>
+        <v>6093.2886609999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.692580</v>
+        <v>1.69258</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL14" s="1">
-        <v>-351.233000</v>
+        <v>-351.233</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>6104.050853</v>
+        <v>6104.0508529999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.695570</v>
+        <v>1.69557</v>
       </c>
       <c r="BP14" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-572.765000</v>
+        <v>-572.76499999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>6114.988665</v>
+        <v>6114.9886649999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.698608</v>
+        <v>1.6986079999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1597.290000</v>
+        <v>1597.29</v>
       </c>
       <c r="BV14" s="1">
-        <v>-824.509000</v>
+        <v>-824.50900000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>6126.223543</v>
+        <v>6126.2235430000001</v>
       </c>
       <c r="BY14" s="1">
         <v>1.701729</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1745.540000</v>
+        <v>1745.54</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1099.160000</v>
+        <v>-1099.1600000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>6138.349704</v>
+        <v>6138.3497040000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.705097</v>
+        <v>1.7050970000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2156.340000</v>
+        <v>2156.34</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1769.070000</v>
+        <v>-1769.07</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>5964.559967</v>
+        <v>5964.5599670000001</v>
       </c>
       <c r="B15" s="1">
         <v>1.656822</v>
       </c>
       <c r="C15" s="1">
-        <v>1145.600000</v>
+        <v>1145.5999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.324000</v>
+        <v>-258.32400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>5974.672896</v>
       </c>
       <c r="G15" s="1">
-        <v>1.659631</v>
+        <v>1.6596310000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.930000</v>
+        <v>1166.93</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.548000</v>
+        <v>-216.548</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>5985.122611</v>
+        <v>5985.1226109999998</v>
       </c>
       <c r="L15" s="1">
         <v>1.662534</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.780000</v>
+        <v>1193.78</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.659000</v>
+        <v>-149.65899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>5995.993428</v>
+        <v>5995.9934279999998</v>
       </c>
       <c r="Q15" s="1">
         <v>1.665554</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.520000</v>
+        <v>1201.52</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.435000</v>
+        <v>-127.435</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>6006.538411</v>
+        <v>6006.5384110000005</v>
       </c>
       <c r="V15" s="1">
-        <v>1.668483</v>
+        <v>1.6684829999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.577000</v>
+        <v>-106.577</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>6017.005978</v>
+        <v>6017.0059780000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.671391</v>
+        <v>1.6713910000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.372000</v>
+        <v>-89.372</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>6027.520634</v>
+        <v>6027.5206340000004</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.674311</v>
+        <v>1.6743110000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1220.000000</v>
+        <v>1220</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.909700</v>
+        <v>-84.909700000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6037.959438</v>
+        <v>6037.9594379999999</v>
       </c>
       <c r="AK15" s="1">
         <v>1.677211</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.870000</v>
+        <v>1226.8699999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.000800</v>
+        <v>-88.000799999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>6049.267230</v>
+        <v>6049.2672300000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.680352</v>
+        <v>1.6803520000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.580000</v>
+        <v>1234.58</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.547700</v>
+        <v>-99.547700000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>6060.804703</v>
+        <v>6060.8047029999998</v>
       </c>
       <c r="AU15" s="1">
         <v>1.683557</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.469000</v>
+        <v>-118.46899999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>6071.835697</v>
+        <v>6071.8356970000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.686621</v>
+        <v>1.6866209999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="BB15" s="1">
-        <v>-135.603000</v>
+        <v>-135.60300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>6083.138561</v>
+        <v>6083.1385609999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.689761</v>
+        <v>1.6897610000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.140000</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-216.146000</v>
+        <v>-216.14599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>6093.663635</v>
+        <v>6093.6636349999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.692684</v>
+        <v>1.6926840000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL15" s="1">
-        <v>-351.277000</v>
+        <v>-351.27699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>6104.446661</v>
+        <v>6104.4466609999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.695680</v>
+        <v>1.6956800000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-572.789000</v>
+        <v>-572.78899999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>6115.414236</v>
+        <v>6115.4142359999996</v>
       </c>
       <c r="BT15" s="1">
         <v>1.698726</v>
       </c>
       <c r="BU15" s="1">
-        <v>1597.410000</v>
+        <v>1597.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-824.642000</v>
+        <v>-824.64200000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>6126.646631</v>
+        <v>6126.6466309999996</v>
       </c>
       <c r="BY15" s="1">
         <v>1.701846</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1745.370000</v>
+        <v>1745.37</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1099.070000</v>
+        <v>-1099.07</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>6138.893816</v>
+        <v>6138.8938159999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.705248</v>
+        <v>1.7052480000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2157.500000</v>
+        <v>2157.5</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1771.310000</v>
+        <v>-1771.31</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>5964.902244</v>
+        <v>5964.9022439999999</v>
       </c>
       <c r="B16" s="1">
         <v>1.656917</v>
       </c>
       <c r="C16" s="1">
-        <v>1145.990000</v>
+        <v>1145.99</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.289000</v>
+        <v>-258.28899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>5975.360847</v>
+        <v>5975.3608469999999</v>
       </c>
       <c r="G16" s="1">
-        <v>1.659822</v>
+        <v>1.6598219999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.960000</v>
+        <v>1166.96</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.754000</v>
+        <v>-216.75399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>5985.814529</v>
+        <v>5985.8145290000002</v>
       </c>
       <c r="L16" s="1">
-        <v>1.662726</v>
+        <v>1.6627259999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.800000</v>
+        <v>1193.8</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.738000</v>
+        <v>-149.738</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>5996.335171</v>
+        <v>5996.3351709999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.665649</v>
+        <v>1.6656489999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.530000</v>
+        <v>1201.53</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.469000</v>
+        <v>-127.46899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>6006.852374</v>
+        <v>6006.8523740000001</v>
       </c>
       <c r="V16" s="1">
-        <v>1.668570</v>
+        <v>1.6685700000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.375000</v>
+        <v>-106.375</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>6017.352649</v>
+        <v>6017.3526490000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.671487</v>
+        <v>1.6714869999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.339400</v>
+        <v>-89.339399999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>6028.180314</v>
+        <v>6028.1803140000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>1.674495</v>
+        <v>1.6744950000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1220.000000</v>
+        <v>1220</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.858600</v>
+        <v>-84.858599999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>6038.616637</v>
+        <v>6038.6166370000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.677394</v>
+        <v>1.6773940000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.017200</v>
+        <v>-88.017200000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>6049.675436</v>
+        <v>6049.6754360000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.680465</v>
+        <v>1.6804650000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.540000</v>
+        <v>1234.54</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.514000</v>
+        <v>-99.513999999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>6061.167743</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.683658</v>
+        <v>1.6836580000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.424000</v>
+        <v>-118.42400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>6072.222111</v>
@@ -4229,754 +4645,754 @@
         <v>1.686728</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.400000</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-135.584000</v>
+        <v>-135.584</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>6083.497633</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.689860</v>
+        <v>1.6898599999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-216.174000</v>
+        <v>-216.17400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>6094.091961</v>
+        <v>6094.0919610000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.692803</v>
+        <v>1.6928030000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-351.272000</v>
+        <v>-351.27199999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>6104.870771</v>
+        <v>6104.8707709999999</v>
       </c>
       <c r="BO16" s="1">
         <v>1.695797</v>
       </c>
       <c r="BP16" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-572.731000</v>
+        <v>-572.73099999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>6115.832325</v>
+        <v>6115.8323250000003</v>
       </c>
       <c r="BT16" s="1">
         <v>1.698842</v>
       </c>
       <c r="BU16" s="1">
-        <v>1597.290000</v>
+        <v>1597.29</v>
       </c>
       <c r="BV16" s="1">
-        <v>-824.657000</v>
+        <v>-824.65700000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>6127.071671</v>
+        <v>6127.0716709999997</v>
       </c>
       <c r="BY16" s="1">
         <v>1.701964</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1745.380000</v>
+        <v>1745.38</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1099.150000</v>
+        <v>-1099.1500000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>6139.432967</v>
+        <v>6139.4329669999997</v>
       </c>
       <c r="CD16" s="1">
         <v>1.705398</v>
       </c>
       <c r="CE16" s="1">
-        <v>2158.130000</v>
+        <v>2158.13</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1768.790000</v>
+        <v>-1768.79</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>5965.585692</v>
+        <v>5965.5856919999997</v>
       </c>
       <c r="B17" s="1">
-        <v>1.657107</v>
+        <v>1.6571070000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1145.660000</v>
+        <v>1145.6600000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.504000</v>
+        <v>-258.50400000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>5975.708048</v>
+        <v>5975.7080480000004</v>
       </c>
       <c r="G17" s="1">
-        <v>1.659919</v>
+        <v>1.6599189999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.780000</v>
+        <v>1166.78</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.386000</v>
+        <v>-216.386</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>5986.158288</v>
+        <v>5986.1582879999996</v>
       </c>
       <c r="L17" s="1">
         <v>1.662822</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.670000</v>
+        <v>1193.67</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.572000</v>
+        <v>-149.572</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>5996.689845</v>
+        <v>5996.6898449999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.665747</v>
+        <v>1.6657470000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.530000</v>
+        <v>1201.53</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.509000</v>
+        <v>-127.509</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>6007.507558</v>
+        <v>6007.5075580000002</v>
       </c>
       <c r="V17" s="1">
         <v>1.668752</v>
       </c>
       <c r="W17" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.560000</v>
+        <v>-106.56</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>6018.006906</v>
+        <v>6018.0069059999996</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.671669</v>
+        <v>1.6716690000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.450000</v>
+        <v>1215.45</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.471800</v>
+        <v>-89.471800000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>6028.553802</v>
+        <v>6028.5538020000004</v>
       </c>
       <c r="AF17" s="1">
         <v>1.674598</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.889800</v>
+        <v>-84.889799999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>6039.006491</v>
+        <v>6039.0064910000001</v>
       </c>
       <c r="AK17" s="1">
         <v>1.677502</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.830000</v>
+        <v>1226.83</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.998900</v>
+        <v>-87.998900000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>6050.059374</v>
+        <v>6050.0593740000004</v>
       </c>
       <c r="AP17" s="1">
         <v>1.680572</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.541800</v>
+        <v>-99.541799999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>6061.531311</v>
+        <v>6061.5313109999997</v>
       </c>
       <c r="AU17" s="1">
         <v>1.683759</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.411000</v>
+        <v>-118.411</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>6072.582672</v>
+        <v>6072.5826719999995</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.686829</v>
+        <v>1.6868289999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-135.550000</v>
+        <v>-135.55000000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>6083.909646</v>
+        <v>6083.9096460000001</v>
       </c>
       <c r="BE17" s="1">
         <v>1.689975</v>
       </c>
       <c r="BF17" s="1">
-        <v>1291.110000</v>
+        <v>1291.1099999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-216.142000</v>
+        <v>-216.142</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>6094.413122</v>
+        <v>6094.4131219999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.692893</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL17" s="1">
-        <v>-351.279000</v>
+        <v>-351.279</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>6105.267076</v>
+        <v>6105.2670760000001</v>
       </c>
       <c r="BO17" s="1">
         <v>1.695908</v>
       </c>
       <c r="BP17" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-572.706000</v>
+        <v>-572.70600000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>6116.261861</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.698962</v>
+        <v>1.6989620000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1597.210000</v>
+        <v>1597.21</v>
       </c>
       <c r="BV17" s="1">
-        <v>-824.695000</v>
+        <v>-824.69500000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>6127.489126</v>
+        <v>6127.4891260000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.702080</v>
+        <v>1.70208</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1745.420000</v>
+        <v>1745.42</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1099.320000</v>
+        <v>-1099.32</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>6139.973110</v>
+        <v>6139.9731099999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>1.705548</v>
+        <v>1.7055480000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2156.200000</v>
+        <v>2156.1999999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1770.370000</v>
+        <v>-1770.37</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>5965.928924</v>
+        <v>5965.9289239999998</v>
       </c>
       <c r="B18" s="1">
-        <v>1.657202</v>
+        <v>1.6572020000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1145.690000</v>
+        <v>1145.69</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.314000</v>
+        <v>-258.31400000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5976.051278</v>
+        <v>5976.0512779999999</v>
       </c>
       <c r="G18" s="1">
-        <v>1.660014</v>
+        <v>1.6600140000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.500000</v>
+        <v>1166.5</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.956000</v>
+        <v>-215.95599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>5986.504465</v>
       </c>
       <c r="L18" s="1">
-        <v>1.662918</v>
+        <v>1.6629179999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.896000</v>
+        <v>-149.89599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>5997.350606</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.665931</v>
+        <v>1.6659310000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.530000</v>
+        <v>-127.53</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>6007.883028</v>
+        <v>6007.8830280000002</v>
       </c>
       <c r="V18" s="1">
-        <v>1.668856</v>
+        <v>1.6688559999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1208.500000</v>
+        <v>1208.5</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.521000</v>
+        <v>-106.521</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>6018.398214</v>
+        <v>6018.3982139999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.671777</v>
+        <v>1.6717770000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.400000</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.493700</v>
+        <v>-89.493700000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>6028.897046</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.674694</v>
+        <v>1.6746939999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.980000</v>
+        <v>1219.98</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.878600</v>
+        <v>-84.878600000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6039.350714</v>
+        <v>6039.3507140000002</v>
       </c>
       <c r="AK18" s="1">
         <v>1.677597</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.954000</v>
+        <v>-87.953999999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>6050.420924</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.680672</v>
+        <v>1.6806719999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.552400</v>
+        <v>-99.552400000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>6061.952413</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.683876</v>
+        <v>1.6838759999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.442000</v>
+        <v>-118.44199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>6073.002286</v>
+        <v>6073.0022859999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.686945</v>
+        <v>1.6869449999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.390000</v>
+        <v>1252.3900000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-135.577000</v>
+        <v>-135.577</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>6084.221791</v>
+        <v>6084.2217909999999</v>
       </c>
       <c r="BE18" s="1">
         <v>1.690062</v>
       </c>
       <c r="BF18" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-216.175000</v>
+        <v>-216.17500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>6094.817361</v>
+        <v>6094.8173610000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.693005</v>
+        <v>1.6930050000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-351.213000</v>
+        <v>-351.21300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>6105.690628</v>
+        <v>6105.6906280000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.696025</v>
+        <v>1.6960249999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1468.780000</v>
+        <v>1468.78</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-572.789000</v>
+        <v>-572.78899999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>6116.672549</v>
+        <v>6116.6725489999999</v>
       </c>
       <c r="BT18" s="1">
         <v>1.699076</v>
       </c>
       <c r="BU18" s="1">
-        <v>1597.220000</v>
+        <v>1597.22</v>
       </c>
       <c r="BV18" s="1">
-        <v>-824.734000</v>
+        <v>-824.73400000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>6127.938195</v>
+        <v>6127.9381949999997</v>
       </c>
       <c r="BY18" s="1">
         <v>1.702205</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1745.490000</v>
+        <v>1745.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1099.130000</v>
+        <v>-1099.1300000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>6140.512789</v>
+        <v>6140.5127890000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.705698</v>
+        <v>1.7056979999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2159.130000</v>
+        <v>2159.13</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1770.550000</v>
+        <v>-1770.55</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>5966.270048</v>
+        <v>5966.2700480000003</v>
       </c>
       <c r="B19" s="1">
         <v>1.657297</v>
       </c>
       <c r="C19" s="1">
-        <v>1145.760000</v>
+        <v>1145.76</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.129000</v>
+        <v>-258.12900000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>5976.699085</v>
+        <v>5976.6990850000002</v>
       </c>
       <c r="G19" s="1">
-        <v>1.660194</v>
+        <v>1.6601939999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.690000</v>
+        <v>1166.69</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.896000</v>
+        <v>-216.89599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>5987.155713</v>
+        <v>5987.1557130000001</v>
       </c>
       <c r="L19" s="1">
-        <v>1.663099</v>
+        <v>1.6630990000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.860000</v>
+        <v>1193.8599999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.697000</v>
+        <v>-149.697</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>5997.734914</v>
+        <v>5997.7349139999997</v>
       </c>
       <c r="Q19" s="1">
         <v>1.666037</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.480000</v>
+        <v>1201.48</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.536000</v>
+        <v>-127.536</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>6008.227252</v>
+        <v>6008.2272519999997</v>
       </c>
       <c r="V19" s="1">
         <v>1.668952</v>
       </c>
       <c r="W19" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.479000</v>
+        <v>-106.479</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>6018.748735</v>
+        <v>6018.7487350000001</v>
       </c>
       <c r="AA19" s="1">
         <v>1.671875</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.400000</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.532300</v>
+        <v>-89.532300000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>6029.241752</v>
+        <v>6029.2417519999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.674789</v>
+        <v>1.6747890000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.875500</v>
+        <v>-84.875500000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6039.700891</v>
+        <v>6039.7008910000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.677695</v>
+        <v>1.6776949999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.850000</v>
+        <v>1226.8499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.042800</v>
+        <v>-88.0428</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>6050.835579</v>
+        <v>6050.8355789999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.680788</v>
+        <v>1.6807879999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.540000</v>
+        <v>1234.54</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.546700</v>
+        <v>-99.546700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>6062.262412</v>
@@ -4985,1510 +5401,1510 @@
         <v>1.683962</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.452000</v>
+        <v>-118.452</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>6073.297903</v>
+        <v>6073.2979029999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.687027</v>
+        <v>1.6870270000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.570000</v>
+        <v>1252.57</v>
       </c>
       <c r="BB19" s="1">
-        <v>-135.627000</v>
+        <v>-135.62700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>6084.582415</v>
+        <v>6084.5824149999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.690162</v>
+        <v>1.6901619999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1291.140000</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-216.167000</v>
+        <v>-216.167</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>6095.188834</v>
+        <v>6095.1888339999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.693108</v>
+        <v>1.6931080000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL19" s="1">
-        <v>-351.219000</v>
+        <v>-351.21899999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>6106.086964</v>
+        <v>6106.0869640000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.696135</v>
+        <v>1.6961349999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1468.780000</v>
+        <v>1468.78</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-572.743000</v>
+        <v>-572.74300000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>6117.101588</v>
+        <v>6117.1015880000004</v>
       </c>
       <c r="BT19" s="1">
         <v>1.699195</v>
       </c>
       <c r="BU19" s="1">
-        <v>1597.160000</v>
+        <v>1597.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.790000</v>
+        <v>-824.79</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>6128.357797</v>
+        <v>6128.3577969999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.702322</v>
+        <v>1.7023219999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1745.420000</v>
+        <v>1745.42</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1099.280000</v>
+        <v>-1099.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>6141.051908</v>
+        <v>6141.0519080000004</v>
       </c>
       <c r="CD19" s="1">
         <v>1.705848</v>
       </c>
       <c r="CE19" s="1">
-        <v>2156.020000</v>
+        <v>2156.02</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1768.810000</v>
+        <v>-1768.81</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>5966.927898</v>
+        <v>5966.9278979999999</v>
       </c>
       <c r="B20" s="1">
-        <v>1.657480</v>
+        <v>1.6574800000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1145.700000</v>
+        <v>1145.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.489000</v>
+        <v>-258.48899999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>5977.085437</v>
+        <v>5977.0854369999997</v>
       </c>
       <c r="G20" s="1">
-        <v>1.660302</v>
+        <v>1.6603019999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1167.260000</v>
+        <v>1167.26</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.279000</v>
+        <v>-216.279</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>5987.540607</v>
+        <v>5987.5406069999999</v>
       </c>
       <c r="L20" s="1">
         <v>1.663206</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.900000</v>
+        <v>1193.9000000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.762000</v>
+        <v>-149.762</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>5998.084071</v>
+        <v>5998.0840710000002</v>
       </c>
       <c r="Q20" s="1">
         <v>1.666134</v>
       </c>
       <c r="R20" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.445000</v>
+        <v>-127.44499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>6008.571012</v>
+        <v>6008.5710120000003</v>
       </c>
       <c r="V20" s="1">
-        <v>1.669048</v>
+        <v>1.6690480000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.614000</v>
+        <v>-106.614</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>6019.095093</v>
+        <v>6019.0950929999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.671971</v>
+        <v>1.6719710000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.450000</v>
+        <v>1215.45</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.561900</v>
+        <v>-89.561899999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>6029.662857</v>
+        <v>6029.6628570000003</v>
       </c>
       <c r="AF20" s="1">
         <v>1.674906</v>
       </c>
       <c r="AG20" s="1">
-        <v>1220.020000</v>
+        <v>1220.02</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.862300</v>
+        <v>-84.862300000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>6040.273282</v>
+        <v>6040.2732820000001</v>
       </c>
       <c r="AK20" s="1">
         <v>1.677854</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.870000</v>
+        <v>1226.8699999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.994900</v>
+        <v>-87.994900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>6051.140123</v>
+        <v>6051.1401230000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.680872</v>
+        <v>1.6808719999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.580000</v>
+        <v>1234.58</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.575800</v>
+        <v>-99.575800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>6062.626477</v>
+        <v>6062.6264769999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.684063</v>
+        <v>1.6840630000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.437000</v>
+        <v>-118.437</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>6074.090013</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.687247</v>
+        <v>1.6872469999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="BB20" s="1">
-        <v>-135.576000</v>
+        <v>-135.57599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>6084.942974</v>
+        <v>6084.9429739999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.690262</v>
+        <v>1.6902619999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1291.140000</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-216.183000</v>
+        <v>-216.18299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>6095.940801</v>
+        <v>6095.9408009999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>1.693317</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.270000</v>
+        <v>1358.27</v>
       </c>
       <c r="BL20" s="1">
-        <v>-351.247000</v>
+        <v>-351.24700000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>6106.506082</v>
+        <v>6106.5060819999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.696252</v>
+        <v>1.6962520000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1468.730000</v>
+        <v>1468.73</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-572.732000</v>
+        <v>-572.73199999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>6117.532648</v>
+        <v>6117.5326480000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.699315</v>
+        <v>1.6993149999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1597.200000</v>
+        <v>1597.2</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.704000</v>
+        <v>-824.70399999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>6128.782870</v>
+        <v>6128.78287</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.702440</v>
+        <v>1.70244</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1745.500000</v>
+        <v>1745.5</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1099.130000</v>
+        <v>-1099.1300000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>6141.622805</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.706006</v>
+        <v>1.7060059999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2158.670000</v>
+        <v>2158.67</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1769.690000</v>
+        <v>-1769.69</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>5967.295402</v>
+        <v>5967.2954019999997</v>
       </c>
       <c r="B21" s="1">
-        <v>1.657582</v>
+        <v>1.6575820000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1145.820000</v>
+        <v>1145.82</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.203000</v>
+        <v>-258.20299999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5977.429192</v>
+        <v>5977.4291919999996</v>
       </c>
       <c r="G21" s="1">
-        <v>1.660397</v>
+        <v>1.6603969999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1167.370000</v>
+        <v>1167.3699999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.173000</v>
+        <v>-216.173</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>5987.888798</v>
       </c>
       <c r="L21" s="1">
-        <v>1.663302</v>
+        <v>1.6633020000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.080000</v>
+        <v>1194.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.513000</v>
+        <v>-149.51300000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>5998.429777</v>
+        <v>5998.4297770000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.666230</v>
+        <v>1.6662300000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.530000</v>
+        <v>1201.53</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.469000</v>
+        <v>-127.46899999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>6008.985667</v>
+        <v>6008.9856669999999</v>
       </c>
       <c r="V21" s="1">
         <v>1.669163</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.498000</v>
+        <v>-106.498</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>6019.514213</v>
+        <v>6019.5142130000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.672087</v>
+        <v>1.6720870000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.353600</v>
+        <v>-89.3536</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>6029.944115</v>
+        <v>6029.9441150000002</v>
       </c>
       <c r="AF21" s="1">
         <v>1.674984</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.980000</v>
+        <v>1219.98</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.876200</v>
+        <v>-84.876199999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6040.629420</v>
+        <v>6040.6294200000002</v>
       </c>
       <c r="AK21" s="1">
         <v>1.677953</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.005500</v>
+        <v>-88.005499999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>6051.500716</v>
+        <v>6051.5007159999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.680972</v>
+        <v>1.6809719999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.543400</v>
+        <v>-99.543400000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>6062.991036</v>
+        <v>6062.9910360000003</v>
       </c>
       <c r="AU21" s="1">
         <v>1.684164</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.415000</v>
+        <v>-118.41500000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>6074.607836</v>
+        <v>6074.6078360000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.687391</v>
+        <v>1.6873910000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="BB21" s="1">
-        <v>-135.580000</v>
+        <v>-135.58000000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>6085.664157</v>
+        <v>6085.6641570000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.690462</v>
+        <v>1.6904619999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-216.184000</v>
+        <v>-216.184</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>6096.315775</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.693421</v>
+        <v>1.6934210000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL21" s="1">
-        <v>-351.280000</v>
+        <v>-351.28</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>6106.903841</v>
+        <v>6106.9038410000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.696362</v>
+        <v>1.6963619999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-572.767000</v>
+        <v>-572.76700000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>6117.942803</v>
+        <v>6117.9428029999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.699429</v>
+        <v>1.6994290000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1597.220000</v>
+        <v>1597.22</v>
       </c>
       <c r="BV21" s="1">
-        <v>-824.872000</v>
+        <v>-824.87199999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>6129.538873</v>
+        <v>6129.5388730000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.702650</v>
+        <v>1.70265</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1745.230000</v>
+        <v>1745.23</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1099.070000</v>
+        <v>-1099.07</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>6142.131204</v>
+        <v>6142.1312040000003</v>
       </c>
       <c r="CD21" s="1">
         <v>1.706148</v>
       </c>
       <c r="CE21" s="1">
-        <v>2158.320000</v>
+        <v>2158.3200000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1769.450000</v>
+        <v>-1769.45</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>5967.639625</v>
+        <v>5967.6396249999998</v>
       </c>
       <c r="B22" s="1">
         <v>1.657678</v>
       </c>
       <c r="C22" s="1">
-        <v>1145.720000</v>
+        <v>1145.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.145000</v>
+        <v>-258.14499999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>5977.772892</v>
       </c>
       <c r="G22" s="1">
-        <v>1.660492</v>
+        <v>1.6604920000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.450000</v>
+        <v>1166.45</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.458000</v>
+        <v>-216.458</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>5988.228063</v>
+        <v>5988.2280629999996</v>
       </c>
       <c r="L22" s="1">
         <v>1.663397</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.960000</v>
+        <v>1193.96</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.558000</v>
+        <v>-149.55799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>5998.861297</v>
+        <v>5998.8612970000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.666350</v>
+        <v>1.66635</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.520000</v>
+        <v>1201.52</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.544000</v>
+        <v>-127.544</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>6009.257442</v>
+        <v>6009.2574420000001</v>
       </c>
       <c r="V22" s="1">
         <v>1.669238</v>
       </c>
       <c r="W22" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.455000</v>
+        <v>-106.455</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>6019.805862</v>
+        <v>6019.8058620000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.672168</v>
+        <v>1.6721680000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.600000</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.367900</v>
+        <v>-89.367900000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>6030.289798</v>
+        <v>6030.2897979999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.675080</v>
+        <v>1.6750799999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1220.020000</v>
+        <v>1220.02</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.902600</v>
+        <v>-84.902600000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>6040.975608</v>
+        <v>6040.9756079999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.678049</v>
+        <v>1.6780489999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.880000</v>
+        <v>1226.8800000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.963100</v>
+        <v>-87.963099999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>6051.861306</v>
+        <v>6051.8613059999998</v>
       </c>
       <c r="AP22" s="1">
         <v>1.681073</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.563400</v>
+        <v>-99.563400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>6063.725115</v>
+        <v>6063.7251150000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.684368</v>
+        <v>1.6843680000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.461000</v>
+        <v>-118.461</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>6075.002155</v>
+        <v>6075.0021550000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.687501</v>
+        <v>1.6875009999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.390000</v>
+        <v>1252.3900000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-135.567000</v>
+        <v>-135.56700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>6086.024285</v>
+        <v>6086.0242850000004</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.690562</v>
+        <v>1.6905619999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-216.144000</v>
+        <v>-216.14400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>6096.692208</v>
+        <v>6096.6922080000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.693526</v>
+        <v>1.6935260000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL22" s="1">
-        <v>-351.231000</v>
+        <v>-351.23099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>6107.326432</v>
+        <v>6107.3264319999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.696480</v>
+        <v>1.69648</v>
       </c>
       <c r="BP22" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-572.752000</v>
+        <v>-572.75199999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>6118.683827</v>
+        <v>6118.6838269999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.699634</v>
+        <v>1.6996340000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1597.020000</v>
+        <v>1597.02</v>
       </c>
       <c r="BV22" s="1">
-        <v>-824.789000</v>
+        <v>-824.78899999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>6129.661283</v>
+        <v>6129.6612830000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.702684</v>
+        <v>1.7026840000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1745.340000</v>
+        <v>1745.34</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1099.100000</v>
+        <v>-1099.0999999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>6142.648034</v>
+        <v>6142.6480339999998</v>
       </c>
       <c r="CD22" s="1">
         <v>1.706291</v>
       </c>
       <c r="CE22" s="1">
-        <v>2156.410000</v>
+        <v>2156.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1769.100000</v>
+        <v>-1769.1</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>5967.983354</v>
       </c>
       <c r="B23" s="1">
-        <v>1.657773</v>
+        <v>1.6577729999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1145.870000</v>
+        <v>1145.8699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.279000</v>
+        <v>-258.279</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>5978.191052</v>
+        <v>5978.1910520000001</v>
       </c>
       <c r="G23" s="1">
         <v>1.660609</v>
       </c>
       <c r="H23" s="1">
-        <v>1167.470000</v>
+        <v>1167.47</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.191000</v>
+        <v>-216.191</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>5988.655118</v>
+        <v>5988.6551179999997</v>
       </c>
       <c r="L23" s="1">
-        <v>1.663515</v>
+        <v>1.6635150000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.920000</v>
+        <v>1193.92</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.560000</v>
+        <v>-149.56</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>5999.141057</v>
+        <v>5999.1410569999998</v>
       </c>
       <c r="Q23" s="1">
         <v>1.666428</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.480000</v>
+        <v>1201.48</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.535000</v>
+        <v>-127.535</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>6009.604146</v>
+        <v>6009.6041459999997</v>
       </c>
       <c r="V23" s="1">
-        <v>1.669334</v>
+        <v>1.6693340000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1208.380000</v>
+        <v>1208.3800000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.551000</v>
+        <v>-106.551</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>6020.155542</v>
+        <v>6020.1555420000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.672265</v>
+        <v>1.6722649999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.630000</v>
+        <v>1215.6300000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.413700</v>
+        <v>-89.413700000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>6030.632534</v>
+        <v>6030.6325340000003</v>
       </c>
       <c r="AF23" s="1">
         <v>1.675176</v>
       </c>
       <c r="AG23" s="1">
-        <v>1220.000000</v>
+        <v>1220</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.898100</v>
+        <v>-84.898099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>6041.680424</v>
+        <v>6041.6804240000001</v>
       </c>
       <c r="AK23" s="1">
         <v>1.678245</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.860000</v>
+        <v>1226.8599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.002700</v>
+        <v>-88.002700000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>6052.580009</v>
+        <v>6052.5800090000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.681272</v>
+        <v>1.6812720000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.560000</v>
+        <v>1234.56</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.547200</v>
+        <v>-99.547200000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>6064.107530</v>
+        <v>6064.1075300000002</v>
       </c>
       <c r="AU23" s="1">
         <v>1.684474</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.210000</v>
+        <v>1244.21</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.460000</v>
+        <v>-118.46</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>6075.363740</v>
+        <v>6075.3637399999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.687601</v>
+        <v>1.6876009999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.400000</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-135.537000</v>
+        <v>-135.53700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>6086.387357</v>
+        <v>6086.3873569999996</v>
       </c>
       <c r="BE23" s="1">
         <v>1.690663</v>
       </c>
       <c r="BF23" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-216.136000</v>
+        <v>-216.136</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>6097.398510</v>
+        <v>6097.39851</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.693722</v>
+        <v>1.6937219999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL23" s="1">
-        <v>-351.253000</v>
+        <v>-351.25299999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>6108.027776</v>
+        <v>6108.0277759999999</v>
       </c>
       <c r="BO23" s="1">
         <v>1.696674</v>
       </c>
       <c r="BP23" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-572.759000</v>
+        <v>-572.75900000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>6118.799427</v>
+        <v>6118.7994269999999</v>
       </c>
       <c r="BT23" s="1">
         <v>1.699667</v>
       </c>
       <c r="BU23" s="1">
-        <v>1597.010000</v>
+        <v>1597.01</v>
       </c>
       <c r="BV23" s="1">
-        <v>-824.810000</v>
+        <v>-824.81</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>6130.089827</v>
+        <v>6130.0898269999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.702803</v>
+        <v>1.7028030000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1745.380000</v>
+        <v>1745.38</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1099.210000</v>
+        <v>-1099.21</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>6143.167873</v>
+        <v>6143.1678730000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.706436</v>
+        <v>1.7064360000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2158.310000</v>
+        <v>2158.31</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1771.010000</v>
+        <v>-1771.01</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>5968.413917</v>
+        <v>5968.4139169999999</v>
       </c>
       <c r="B24" s="1">
-        <v>1.657893</v>
+        <v>1.6578930000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1145.820000</v>
+        <v>1145.82</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.204000</v>
+        <v>-258.20400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5978.471755</v>
+        <v>5978.4717549999996</v>
       </c>
       <c r="G24" s="1">
         <v>1.660687</v>
       </c>
       <c r="H24" s="1">
-        <v>1167.340000</v>
+        <v>1167.3399999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.133000</v>
+        <v>-216.13300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>5988.944783</v>
+        <v>5988.9447829999999</v>
       </c>
       <c r="L24" s="1">
-        <v>1.663596</v>
+        <v>1.6635960000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.890000</v>
+        <v>1193.8900000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.533000</v>
+        <v>-149.53299999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>5999.488735</v>
+        <v>5999.4887349999999</v>
       </c>
       <c r="Q24" s="1">
         <v>1.666525</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.430000</v>
+        <v>1201.43</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.556000</v>
+        <v>-127.556</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>6009.946916</v>
+        <v>6009.9469159999999</v>
       </c>
       <c r="V24" s="1">
-        <v>1.669430</v>
+        <v>1.66943</v>
       </c>
       <c r="W24" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.566000</v>
+        <v>-106.566</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>6020.504228</v>
+        <v>6020.5042279999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.672362</v>
+        <v>1.6723619999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.489300</v>
+        <v>-89.4893</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>6031.318997</v>
+        <v>6031.3189970000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.675366</v>
+        <v>1.6753659999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.879900</v>
+        <v>-84.879900000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>6042.023656</v>
+        <v>6042.0236560000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.678340</v>
+        <v>1.6783399999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.987800</v>
+        <v>-87.987799999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>6052.939609</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.681372</v>
+        <v>1.6813720000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.556500</v>
+        <v>-99.5565</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>6064.470105</v>
+        <v>6064.4701050000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.684575</v>
+        <v>1.6845749999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="AW24" s="1">
-        <v>-118.443000</v>
+        <v>-118.443</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>6076.042774</v>
+        <v>6076.0427739999996</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.687790</v>
+        <v>1.6877899999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-135.565000</v>
+        <v>-135.565</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>6087.053947</v>
+        <v>6087.0539470000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.690848</v>
+        <v>1.6908479999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-216.133000</v>
+        <v>-216.13300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>6097.843421</v>
+        <v>6097.8434209999996</v>
       </c>
       <c r="BJ24" s="1">
         <v>1.693845</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL24" s="1">
-        <v>-351.266000</v>
+        <v>-351.26600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>6108.563455</v>
+        <v>6108.5634550000004</v>
       </c>
       <c r="BO24" s="1">
         <v>1.696823</v>
       </c>
       <c r="BP24" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-572.712000</v>
+        <v>-572.71199999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>6119.238354</v>
+        <v>6119.2383540000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.699788</v>
+        <v>1.6997880000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1597.130000</v>
+        <v>1597.13</v>
       </c>
       <c r="BV24" s="1">
-        <v>-824.845000</v>
+        <v>-824.84500000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>6130.522338</v>
+        <v>6130.5223379999998</v>
       </c>
       <c r="BY24" s="1">
         <v>1.702923</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1745.430000</v>
+        <v>1745.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1099.180000</v>
+        <v>-1099.18</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>6143.706498</v>
+        <v>6143.7064979999996</v>
       </c>
       <c r="CD24" s="1">
         <v>1.706585</v>
       </c>
       <c r="CE24" s="1">
-        <v>2157.520000</v>
+        <v>2157.52</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1768.880000</v>
+        <v>-1768.88</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>5968.680232</v>
+        <v>5968.6802319999997</v>
       </c>
       <c r="B25" s="1">
         <v>1.657967</v>
       </c>
       <c r="C25" s="1">
-        <v>1145.720000</v>
+        <v>1145.72</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.047000</v>
+        <v>-258.04700000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>5978.816972</v>
+        <v>5978.8169719999996</v>
       </c>
       <c r="G25" s="1">
         <v>1.660782</v>
       </c>
       <c r="H25" s="1">
-        <v>1167.370000</v>
+        <v>1167.3699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.098000</v>
+        <v>-216.09800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>5989.289004</v>
+        <v>5989.2890040000002</v>
       </c>
       <c r="L25" s="1">
         <v>1.663691</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.860000</v>
+        <v>1193.8599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.660000</v>
+        <v>-149.66</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>5999.837424</v>
+        <v>5999.8374240000003</v>
       </c>
       <c r="Q25" s="1">
         <v>1.666622</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.455000</v>
+        <v>-127.455</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>6010.633344</v>
+        <v>6010.6333439999999</v>
       </c>
       <c r="V25" s="1">
-        <v>1.669620</v>
+        <v>1.6696200000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1208.350000</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.544000</v>
+        <v>-106.544</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>6021.199651</v>
+        <v>6021.1996509999999</v>
       </c>
       <c r="AA25" s="1">
         <v>1.672555</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.660000</v>
+        <v>1215.6600000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.388200</v>
+        <v>-89.388199999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>6031.663717</v>
+        <v>6031.6637170000004</v>
       </c>
       <c r="AF25" s="1">
         <v>1.675462</v>
       </c>
       <c r="AG25" s="1">
-        <v>1220.030000</v>
+        <v>1220.03</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.858700</v>
+        <v>-84.858699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>6042.368872</v>
@@ -6497,210 +6913,210 @@
         <v>1.678436</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.976800</v>
+        <v>-87.976799999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>6053.301689</v>
+        <v>6053.3016889999999</v>
       </c>
       <c r="AP25" s="1">
         <v>1.681473</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.540100</v>
+        <v>-99.540099999999995</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>6065.144548</v>
+        <v>6065.1445480000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.684762</v>
+        <v>1.6847620000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="AW25" s="1">
-        <v>-118.422000</v>
+        <v>-118.422</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>6076.441051</v>
+        <v>6076.4410509999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.687900</v>
+        <v>1.6879</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-135.564000</v>
+        <v>-135.56399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>6087.501340</v>
+        <v>6087.5013399999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.690973</v>
+        <v>1.6909730000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1291.120000</v>
+        <v>1291.1199999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-216.154000</v>
+        <v>-216.154</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>6098.246172</v>
+        <v>6098.2461720000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.693957</v>
+        <v>1.6939569999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.240000</v>
+        <v>1358.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-351.239000</v>
+        <v>-351.23899999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>6108.969719</v>
+        <v>6108.9697189999997</v>
       </c>
       <c r="BO25" s="1">
         <v>1.696936</v>
       </c>
       <c r="BP25" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-572.746000</v>
+        <v>-572.74599999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>6119.648544</v>
+        <v>6119.6485439999997</v>
       </c>
       <c r="BT25" s="1">
         <v>1.699902</v>
       </c>
       <c r="BU25" s="1">
-        <v>1596.970000</v>
+        <v>1596.97</v>
       </c>
       <c r="BV25" s="1">
-        <v>-824.786000</v>
+        <v>-824.78599999999994</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>6130.946417</v>
+        <v>6130.9464170000001</v>
       </c>
       <c r="BY25" s="1">
         <v>1.703041</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1745.500000</v>
+        <v>1745.5</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1099.200000</v>
+        <v>-1099.2</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>6144.246640</v>
+        <v>6144.2466400000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.706735</v>
+        <v>1.7067349999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2155.920000</v>
+        <v>2155.92</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1771.070000</v>
+        <v>-1771.07</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>5969.022503</v>
+        <v>5969.0225030000001</v>
       </c>
       <c r="B26" s="1">
-        <v>1.658062</v>
+        <v>1.6580619999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1145.810000</v>
+        <v>1145.81</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.258000</v>
+        <v>-258.25799999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5979.157755</v>
+        <v>5979.1577550000002</v>
       </c>
       <c r="G26" s="1">
-        <v>1.660877</v>
+        <v>1.6608769999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1167.060000</v>
+        <v>1167.06</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.681000</v>
+        <v>-216.68100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>5989.965052</v>
+        <v>5989.9650519999996</v>
       </c>
       <c r="L26" s="1">
-        <v>1.663879</v>
+        <v>1.6638790000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1194.040000</v>
+        <v>1194.04</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.669000</v>
+        <v>-149.66900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>6000.534799</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.666815</v>
+        <v>1.6668149999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.445000</v>
+        <v>-127.44499999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>6010.976576</v>
@@ -6709,28 +7125,28 @@
         <v>1.669716</v>
       </c>
       <c r="W26" s="1">
-        <v>1208.380000</v>
+        <v>1208.3800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.590000</v>
+        <v>-106.59</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>6021.552274</v>
+        <v>6021.5522739999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.672653</v>
+        <v>1.6726529999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.640000</v>
+        <v>1215.6400000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.462600</v>
+        <v>-89.462599999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>6032.005956</v>
@@ -6739,165 +7155,166 @@
         <v>1.675557</v>
       </c>
       <c r="AG26" s="1">
-        <v>1220.010000</v>
+        <v>1220.01</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.876200</v>
+        <v>-84.876199999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>6043.024086</v>
+        <v>6043.0240860000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.678618</v>
+        <v>1.6786179999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.880000</v>
+        <v>1226.8800000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.986600</v>
+        <v>-87.986599999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>6053.966823</v>
+        <v>6053.9668229999997</v>
       </c>
       <c r="AP26" s="1">
         <v>1.681657</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.518300</v>
+        <v>-99.518299999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>6065.596520</v>
+        <v>6065.5965200000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.684888</v>
+        <v>1.6848879999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.452000</v>
+        <v>-118.452</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>6076.817019</v>
+        <v>6076.8170190000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.688005</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-135.565000</v>
+        <v>-135.565</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>6087.863947</v>
+        <v>6087.8639469999998</v>
       </c>
       <c r="BE26" s="1">
         <v>1.691073</v>
       </c>
       <c r="BF26" s="1">
-        <v>1291.110000</v>
+        <v>1291.1099999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-216.136000</v>
+        <v>-216.136</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>6098.620685</v>
+        <v>6098.6206849999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>1.694061</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.240000</v>
+        <v>1358.24</v>
       </c>
       <c r="BL26" s="1">
-        <v>-351.254000</v>
+        <v>-351.25400000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>6109.379913</v>
+        <v>6109.3799129999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.697050</v>
+        <v>1.6970499999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1468.840000</v>
+        <v>1468.84</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-572.795000</v>
+        <v>-572.79499999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>6120.081552</v>
+        <v>6120.0815519999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.700023</v>
+        <v>1.7000230000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1596.940000</v>
+        <v>1596.94</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.770000</v>
+        <v>-824.77</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>6131.368513</v>
+        <v>6131.3685130000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.703158</v>
+        <v>1.7031579999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1745.340000</v>
+        <v>1745.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1099.100000</v>
+        <v>-1099.0999999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>6144.787447</v>
+        <v>6144.7874469999997</v>
       </c>
       <c r="CD26" s="1">
         <v>1.706885</v>
       </c>
       <c r="CE26" s="1">
-        <v>2159.030000</v>
+        <v>2159.0300000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1769.710000</v>
+        <v>-1769.71</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>